--- a/data/RawData/ObsData/2009-2022/2022/18-10-2022.xlsx
+++ b/data/RawData/ObsData/2009-2022/2022/18-10-2022.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D925DB-C190-425A-9C51-141797DED443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7833D0-D051-40D8-9F59-E8EF38161B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$AA$410</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="776">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1187,9 +1190,6 @@
     <t>MP261</t>
   </si>
   <si>
-    <t>9/20</t>
-  </si>
-  <si>
     <t>Sitio Tertulio</t>
   </si>
   <si>
@@ -1943,9 +1943,6 @@
     <t>T4*-PD</t>
   </si>
   <si>
-    <t>10/ 21</t>
-  </si>
-  <si>
     <t>T4*-BD</t>
   </si>
   <si>
@@ -2165,9 +2162,6 @@
     <t>T134-CD</t>
   </si>
   <si>
-    <t xml:space="preserve"> '04/22</t>
-  </si>
-  <si>
     <t>MP464</t>
   </si>
   <si>
@@ -2343,9 +2337,6 @@
   </si>
   <si>
     <t>MP470</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '07/22</t>
   </si>
   <si>
     <t>Igarape</t>
@@ -5121,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5148,7 +5139,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5417,7 +5408,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>59</v>
@@ -5461,13 +5452,13 @@
     <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>10</v>
@@ -5505,16 +5496,16 @@
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B10" s="290" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="290" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="290" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E10" s="290" t="s">
         <v>10</v>
@@ -5551,13 +5542,13 @@
     <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
@@ -5566,19 +5557,19 @@
         <v>23</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H11" s="102"/>
       <c r="I11" s="100"/>
       <c r="J11" s="80"/>
       <c r="K11" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>145</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>10</v>
@@ -5587,20 +5578,20 @@
         <v>17</v>
       </c>
       <c r="P11" s="75" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>128</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>10</v>
@@ -5609,19 +5600,19 @@
         <v>23</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="100"/>
       <c r="J12" s="80"/>
       <c r="K12" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>10</v>
@@ -5630,7 +5621,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="75" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
@@ -5646,13 +5637,13 @@
       <c r="I13" s="100"/>
       <c r="J13" s="80"/>
       <c r="K13" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>182</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>10</v>
@@ -5661,19 +5652,19 @@
         <v>23</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="346" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>335</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>335</v>
@@ -5693,13 +5684,13 @@
       <c r="I14" s="100"/>
       <c r="J14" s="140"/>
       <c r="K14" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>203</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>10</v>
@@ -5708,7 +5699,7 @@
         <v>23</v>
       </c>
       <c r="P14" s="107" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q14" s="16"/>
     </row>
@@ -5758,7 +5749,7 @@
       <c r="H16" s="59"/>
       <c r="I16" s="100"/>
       <c r="J16" s="253" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>65</v>
@@ -5809,7 +5800,7 @@
       </c>
       <c r="I17" s="100"/>
       <c r="J17" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K17" s="205" t="s">
         <v>89</v>
@@ -5862,7 +5853,7 @@
         <v>311</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>311</v>
@@ -5906,13 +5897,13 @@
       <c r="I19" s="100"/>
       <c r="J19" s="12"/>
       <c r="K19" s="205" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L19" s="205" t="s">
         <v>166</v>
       </c>
       <c r="M19" s="205" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N19" s="205" t="s">
         <v>14</v>
@@ -5949,13 +5940,13 @@
       <c r="I20" s="100"/>
       <c r="J20" s="21"/>
       <c r="K20" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>191</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>10</v>
@@ -6028,7 +6019,7 @@
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="253" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>126</v>
@@ -6072,7 +6063,7 @@
         <v>24</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6108,7 +6099,7 @@
         <v>375</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M24" s="11" t="s">
         <v>375</v>
@@ -6120,7 +6111,7 @@
         <v>11</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q24" s="13">
         <v>4751</v>
@@ -6150,13 +6141,13 @@
       <c r="I25" s="100"/>
       <c r="J25" s="12"/>
       <c r="K25" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>77</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>14</v>
@@ -6165,7 +6156,7 @@
         <v>17</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q25" s="13"/>
     </row>
@@ -6195,13 +6186,13 @@
       <c r="I26" s="100"/>
       <c r="J26" s="12"/>
       <c r="K26" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>14</v>
@@ -6210,20 +6201,20 @@
         <v>17</v>
       </c>
       <c r="P26" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>10</v>
@@ -6232,13 +6223,13 @@
         <v>23</v>
       </c>
       <c r="G27" s="75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="100"/>
       <c r="J27" s="15"/>
       <c r="K27" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -6247,7 +6238,7 @@
         <v>26</v>
       </c>
       <c r="P27" s="175" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q27" s="47"/>
     </row>
@@ -6256,13 +6247,13 @@
         <v>12</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>10</v>
@@ -6271,13 +6262,13 @@
         <v>23</v>
       </c>
       <c r="G28" s="62" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="100"/>
       <c r="J28" s="43"/>
       <c r="K28" s="19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -6286,20 +6277,20 @@
         <v>26</v>
       </c>
       <c r="P28" s="176" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q28" s="44"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>683</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>10</v>
@@ -6308,7 +6299,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="100"/>
@@ -6324,22 +6315,22 @@
     <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>682</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>684</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="108"/>
@@ -6347,22 +6338,22 @@
         <v>373</v>
       </c>
       <c r="K30" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="N30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="75" t="s">
         <v>459</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="75" t="s">
-        <v>460</v>
       </c>
       <c r="Q30" s="13">
         <v>4317</v>
@@ -6371,13 +6362,13 @@
     <row r="31" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="98"/>
       <c r="B31" s="19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>10</v>
@@ -6386,7 +6377,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="100"/>
@@ -6407,7 +6398,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="33" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="Q31" s="13"/>
     </row>
@@ -6425,13 +6416,13 @@
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>248</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>10</v>
@@ -6440,13 +6431,13 @@
         <v>11</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q32" s="13"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="253" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>122</v>
@@ -6464,19 +6455,19 @@
         <v>11</v>
       </c>
       <c r="G33" s="74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="100"/>
       <c r="J33" s="12"/>
       <c r="K33" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>14</v>
@@ -6528,29 +6519,29 @@
         <v>26</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="75" t="s">
         <v>468</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="75" t="s">
-        <v>469</v>
       </c>
       <c r="H35" s="25">
         <v>4945</v>
@@ -6565,20 +6556,20 @@
         <v>26</v>
       </c>
       <c r="P35" s="32" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q35" s="16"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>276</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>14</v>
@@ -6587,7 +6578,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="100"/>
@@ -6622,7 +6613,7 @@
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="166" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B38" s="191"/>
       <c r="C38" s="190"/>
@@ -6633,7 +6624,7 @@
       <c r="H38" s="73"/>
       <c r="I38" s="100"/>
       <c r="J38" s="309" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K38" s="173"/>
       <c r="L38" s="173"/>
@@ -6645,16 +6636,16 @@
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="253" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>434</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>10</v>
@@ -6663,7 +6654,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H39" s="39">
         <v>4845</v>
@@ -6688,22 +6679,22 @@
         <v>11</v>
       </c>
       <c r="P39" s="33" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="Q39" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>215</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>14</v>
@@ -6712,7 +6703,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H40" s="25">
         <v>4070</v>
@@ -6720,13 +6711,13 @@
       <c r="I40" s="100"/>
       <c r="J40" s="12"/>
       <c r="K40" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>234</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>10</v>
@@ -6735,22 +6726,22 @@
         <v>11</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q40" s="25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>14</v>
@@ -6765,13 +6756,13 @@
       <c r="I41" s="100"/>
       <c r="J41" s="12"/>
       <c r="K41" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>14</v>
@@ -6780,7 +6771,7 @@
         <v>11</v>
       </c>
       <c r="P41" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q41" s="13">
         <v>4241</v>
@@ -6792,13 +6783,13 @@
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>14</v>
@@ -6815,13 +6806,13 @@
       <c r="I42" s="100"/>
       <c r="J42" s="12"/>
       <c r="K42" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>14</v>
@@ -6837,13 +6828,13 @@
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>14</v>
@@ -6852,7 +6843,7 @@
         <v>23</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="111"/>
@@ -6860,13 +6851,13 @@
         <v>0</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>224</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>14</v>
@@ -6882,13 +6873,13 @@
     <row r="44" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="31" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>182</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>10</v>
@@ -6897,19 +6888,19 @@
         <v>23</v>
       </c>
       <c r="G44" s="107" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="100"/>
       <c r="J44" s="12"/>
       <c r="K44" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>27</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>14</v>
@@ -6918,7 +6909,7 @@
         <v>23</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>638</v>
+        <v>479</v>
       </c>
       <c r="Q44" s="13"/>
     </row>
@@ -6941,13 +6932,13 @@
         <v>26</v>
       </c>
       <c r="P45" s="22" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q45" s="47"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B46" s="190"/>
       <c r="C46" s="116"/>
@@ -6966,7 +6957,7 @@
         <v>26</v>
       </c>
       <c r="P46" s="37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q46" s="44"/>
     </row>
@@ -6995,7 +6986,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="100"/>
       <c r="J47" s="83" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K47" s="312"/>
       <c r="L47" s="113"/>
@@ -7030,16 +7021,16 @@
       <c r="H48" s="13"/>
       <c r="I48" s="100"/>
       <c r="J48" s="311" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K48" s="52" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>114</v>
@@ -7048,7 +7039,7 @@
         <v>11</v>
       </c>
       <c r="P48" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q48" s="146"/>
       <c r="R48" s="150" t="s">
@@ -7081,35 +7072,35 @@
       <c r="I49" s="100"/>
       <c r="J49" s="15"/>
       <c r="K49" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>379</v>
       </c>
       <c r="M49" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="22" t="s">
         <v>649</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="22" t="s">
-        <v>651</v>
       </c>
       <c r="Q49" s="146"/>
     </row>
     <row r="50" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>14</v>
@@ -7118,19 +7109,19 @@
         <v>17</v>
       </c>
       <c r="G50" s="75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="100"/>
       <c r="J50" s="15"/>
       <c r="K50" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>25</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>10</v>
@@ -7139,20 +7130,20 @@
         <v>23</v>
       </c>
       <c r="P50" s="75" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q50" s="146"/>
     </row>
     <row r="51" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>308</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>10</v>
@@ -7161,7 +7152,7 @@
         <v>17</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="100"/>
@@ -7181,7 +7172,7 @@
     <row r="52" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
@@ -7190,7 +7181,7 @@
         <v>26</v>
       </c>
       <c r="G52" s="107" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="100"/>
@@ -7237,7 +7228,7 @@
       <c r="H54" s="67"/>
       <c r="I54" s="100"/>
       <c r="J54" s="412" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K54" s="126" t="s">
         <v>64</v>
@@ -7253,16 +7244,16 @@
     </row>
     <row r="55" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="253" t="s">
+        <v>408</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>14</v>
@@ -7282,7 +7273,7 @@
         <v>302</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>302</v>
@@ -7322,13 +7313,13 @@
       <c r="I56" s="100"/>
       <c r="J56" s="12"/>
       <c r="K56" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L56" s="11" t="s">
         <v>380</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N56" s="11" t="s">
         <v>10</v>
@@ -7349,13 +7340,13 @@
     <row r="57" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>10</v>
@@ -7373,7 +7364,7 @@
         <v>301</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M57" s="11" t="s">
         <v>301</v>
@@ -7392,13 +7383,13 @@
     <row r="58" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>14</v>
@@ -7428,20 +7419,20 @@
         <v>17</v>
       </c>
       <c r="P58" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
     <row r="59" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>228</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>14</v>
@@ -7456,13 +7447,13 @@
       <c r="I59" s="128"/>
       <c r="J59" s="12"/>
       <c r="K59" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L59" s="11" t="s">
         <v>255</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N59" s="11" t="s">
         <v>10</v>
@@ -7499,13 +7490,13 @@
       <c r="I60" s="89"/>
       <c r="J60" s="12"/>
       <c r="K60" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L60" s="148" t="s">
         <v>13</v>
       </c>
       <c r="M60" s="148" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N60" s="11" t="s">
         <v>14</v>
@@ -7521,13 +7512,13 @@
     <row r="61" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>224</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>10</v>
@@ -7536,7 +7527,7 @@
         <v>23</v>
       </c>
       <c r="G61" s="75" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H61" s="47"/>
       <c r="I61" s="89">
@@ -7544,13 +7535,13 @@
       </c>
       <c r="J61" s="12"/>
       <c r="K61" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L61" s="148" t="s">
         <v>25</v>
       </c>
       <c r="M61" s="148" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N61" s="11" t="s">
         <v>10</v>
@@ -7579,13 +7570,13 @@
       <c r="I62" s="89"/>
       <c r="J62" s="12"/>
       <c r="K62" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L62" s="148" t="s">
         <v>379</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>10</v>
@@ -7594,7 +7585,7 @@
         <v>23</v>
       </c>
       <c r="P62" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q62" s="13"/>
     </row>
@@ -7610,13 +7601,13 @@
       <c r="I63" s="124"/>
       <c r="J63" s="12"/>
       <c r="K63" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L63" s="148" t="s">
         <v>19</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N63" s="11" t="s">
         <v>10</v>
@@ -7625,7 +7616,7 @@
         <v>23</v>
       </c>
       <c r="P63" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q63" s="13" t="s">
         <v>0</v>
@@ -7649,13 +7640,13 @@
       <c r="I64" s="179"/>
       <c r="J64" s="21"/>
       <c r="K64" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L64" s="31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M64" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N64" s="31" t="s">
         <v>10</v>
@@ -7664,7 +7655,7 @@
         <v>23</v>
       </c>
       <c r="P64" s="107" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q64" s="212"/>
     </row>
@@ -7689,7 +7680,7 @@
     </row>
     <row r="66" spans="1:22" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="357" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B66" s="358"/>
       <c r="C66" s="359"/>
@@ -7763,7 +7754,7 @@
     </row>
     <row r="68" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="258" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B68" s="42" t="s">
         <v>374</v>
@@ -7781,23 +7772,23 @@
         <v>11</v>
       </c>
       <c r="G68" s="74" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I68" s="124"/>
       <c r="J68" s="253" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N68" s="8" t="s">
         <v>14</v>
@@ -7806,7 +7797,7 @@
         <v>11</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q68" s="9">
         <v>4620</v>
@@ -7818,13 +7809,13 @@
     <row r="69" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>14</v>
@@ -7833,7 +7824,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H69" s="13">
         <v>4232</v>
@@ -7841,13 +7832,13 @@
       <c r="I69" s="123"/>
       <c r="J69" s="12"/>
       <c r="K69" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N69" s="11" t="s">
         <v>14</v>
@@ -7856,7 +7847,7 @@
         <v>11</v>
       </c>
       <c r="P69" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="V69" t="s">
@@ -7877,13 +7868,13 @@
       <c r="I70" s="109"/>
       <c r="J70" s="12"/>
       <c r="K70" s="338" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L70" s="338" t="s">
         <v>277</v>
       </c>
       <c r="M70" s="338" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N70" s="338" t="s">
         <v>14</v>
@@ -7892,7 +7883,7 @@
         <v>17</v>
       </c>
       <c r="P70" s="339" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q70" s="209"/>
       <c r="U70" t="s">
@@ -7911,13 +7902,13 @@
       <c r="I71" s="109"/>
       <c r="J71" s="12"/>
       <c r="K71" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L71" s="11" t="s">
         <v>277</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N71" s="11" t="s">
         <v>14</v>
@@ -7926,13 +7917,13 @@
         <v>17</v>
       </c>
       <c r="P71" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
     <row r="72" spans="1:22" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="82" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B72" s="79"/>
       <c r="C72" s="76"/>
@@ -7944,13 +7935,13 @@
       <c r="I72" s="109"/>
       <c r="J72" s="12"/>
       <c r="K72" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L72" s="11" t="s">
         <v>120</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>10</v>
@@ -7959,7 +7950,7 @@
         <v>11</v>
       </c>
       <c r="P72" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
@@ -7991,13 +7982,13 @@
       <c r="I73" s="109"/>
       <c r="J73" s="12"/>
       <c r="K73" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>10</v>
@@ -8006,7 +7997,7 @@
         <v>17</v>
       </c>
       <c r="P73" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
@@ -8034,13 +8025,13 @@
       <c r="I74" s="109"/>
       <c r="J74" s="12"/>
       <c r="K74" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L74" s="11" t="s">
         <v>288</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>10</v>
@@ -8048,8 +8039,8 @@
       <c r="O74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P74" s="11" t="s">
-        <v>712</v>
+      <c r="P74" s="33" t="s">
+        <v>667</v>
       </c>
       <c r="Q74" s="13"/>
       <c r="S74" t="s">
@@ -8062,7 +8053,7 @@
         <v>371</v>
       </c>
       <c r="C75" s="306" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D75" s="305" t="s">
         <v>371</v>
@@ -8080,13 +8071,13 @@
       <c r="I75" s="109"/>
       <c r="J75" s="101"/>
       <c r="K75" s="67" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L75" s="67" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M75" s="67" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N75" s="67" t="s">
         <v>14</v>
@@ -8094,8 +8085,8 @@
       <c r="O75" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="P75" s="11" t="s">
-        <v>712</v>
+      <c r="P75" s="33" t="s">
+        <v>667</v>
       </c>
       <c r="Q75" s="73"/>
       <c r="S75" s="155" t="s">
@@ -8114,13 +8105,13 @@
       <c r="I76" s="109"/>
       <c r="J76" s="101"/>
       <c r="K76" s="67" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L76" s="67" t="s">
         <v>276</v>
       </c>
       <c r="M76" s="67" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N76" s="67" t="s">
         <v>14</v>
@@ -8128,23 +8119,23 @@
       <c r="O76" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="P76" s="11" t="s">
-        <v>712</v>
+      <c r="P76" s="33" t="s">
+        <v>667</v>
       </c>
       <c r="Q76" s="73"/>
     </row>
     <row r="77" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="256" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>10</v>
@@ -8153,19 +8144,19 @@
         <v>11</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H77" s="9"/>
       <c r="I77" s="109"/>
       <c r="J77" s="101"/>
       <c r="K77" s="67" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L77" s="67" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M77" s="67" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N77" s="67" t="s">
         <v>10</v>
@@ -8173,8 +8164,8 @@
       <c r="O77" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="P77" s="11" t="s">
-        <v>712</v>
+      <c r="P77" s="33" t="s">
+        <v>667</v>
       </c>
       <c r="Q77" s="73"/>
     </row>
@@ -8202,13 +8193,13 @@
       <c r="I78" s="109"/>
       <c r="J78" s="101"/>
       <c r="K78" s="67" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L78" s="67" t="s">
         <v>358</v>
       </c>
       <c r="M78" s="67" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N78" s="67" t="s">
         <v>14</v>
@@ -8217,20 +8208,20 @@
         <v>23</v>
       </c>
       <c r="P78" s="134" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q78" s="73"/>
     </row>
     <row r="79" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -8239,13 +8230,13 @@
       <c r="I79" s="109"/>
       <c r="J79" s="101"/>
       <c r="K79" s="67" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L79" s="67" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M79" s="67" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N79" s="67" t="s">
         <v>10</v>
@@ -8254,20 +8245,20 @@
         <v>23</v>
       </c>
       <c r="P79" s="134" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q79" s="73"/>
     </row>
     <row r="80" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="31" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C80" s="216" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E80" s="31"/>
       <c r="F80" s="31"/>
@@ -8276,13 +8267,13 @@
       <c r="I80" s="109"/>
       <c r="J80" s="101"/>
       <c r="K80" s="67" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L80" s="67" t="s">
         <v>9</v>
       </c>
       <c r="M80" s="67" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N80" s="67" t="s">
         <v>10</v>
@@ -8291,7 +8282,7 @@
         <v>23</v>
       </c>
       <c r="P80" s="134" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q80" s="73"/>
     </row>
@@ -8320,7 +8311,7 @@
     </row>
     <row r="82" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="257" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>368</v>
@@ -8374,7 +8365,7 @@
       <c r="H83" s="47"/>
       <c r="I83" s="109"/>
       <c r="J83" s="156" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K83" s="78"/>
       <c r="L83" s="76"/>
@@ -8503,7 +8494,7 @@
         <v>293</v>
       </c>
       <c r="Q86" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="T86" t="s">
         <v>0</v>
@@ -8511,16 +8502,16 @@
     </row>
     <row r="87" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="256" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>10</v>
@@ -8529,7 +8520,7 @@
         <v>11</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="109"/>
@@ -8560,13 +8551,13 @@
     <row r="88" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12"/>
       <c r="B88" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>10</v>
@@ -8575,7 +8566,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="109"/>
@@ -8603,13 +8594,13 @@
     <row r="89" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>14</v>
@@ -8618,7 +8609,7 @@
         <v>11</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="109"/>
@@ -8634,13 +8625,13 @@
     <row r="90" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>14</v>
@@ -8649,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="109"/>
@@ -8681,13 +8672,13 @@
     <row r="91" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C91" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>10</v>
@@ -8696,7 +8687,7 @@
         <v>17</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="109"/>
@@ -8738,16 +8729,16 @@
     </row>
     <row r="93" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="256" t="s">
+        <v>629</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>631</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>10</v>
@@ -8756,7 +8747,7 @@
         <v>11</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="109"/>
@@ -8764,13 +8755,13 @@
         <v>0</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N93" s="11" t="s">
         <v>10</v>
@@ -8779,20 +8770,20 @@
         <v>23</v>
       </c>
       <c r="P93" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q93" s="13"/>
     </row>
     <row r="94" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12"/>
       <c r="B94" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>10</v>
@@ -8801,19 +8792,19 @@
         <v>11</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="124"/>
       <c r="J94" s="12"/>
       <c r="K94" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N94" s="11" t="s">
         <v>10</v>
@@ -8822,20 +8813,20 @@
         <v>23</v>
       </c>
       <c r="P94" s="115" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q94" s="13"/>
     </row>
     <row r="95" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12"/>
       <c r="B95" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>14</v>
@@ -8844,19 +8835,19 @@
         <v>11</v>
       </c>
       <c r="G95" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="123"/>
       <c r="J95" s="21"/>
       <c r="K95" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L95" s="31" t="s">
         <v>277</v>
       </c>
       <c r="M95" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>10</v>
@@ -8865,7 +8856,7 @@
         <v>17</v>
       </c>
       <c r="P95" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Q95" s="16"/>
       <c r="T95" t="s">
@@ -8875,13 +8866,13 @@
     <row r="96" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12"/>
       <c r="B96" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>10</v>
@@ -8890,7 +8881,7 @@
         <v>17</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="112"/>
@@ -8906,13 +8897,13 @@
     <row r="97" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>14</v>
@@ -8921,12 +8912,12 @@
         <v>17</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="109"/>
       <c r="J97" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K97" s="190"/>
       <c r="L97" s="116"/>
@@ -8942,13 +8933,13 @@
     <row r="98" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C98" s="31" t="s">
         <v>380</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E98" s="31" t="s">
         <v>10</v>
@@ -8957,7 +8948,7 @@
         <v>23</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H98" s="16"/>
       <c r="I98" s="109"/>
@@ -9017,16 +9008,16 @@
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="256" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>10</v>
@@ -9035,7 +9026,7 @@
         <v>11</v>
       </c>
       <c r="G100" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H100" s="39">
         <v>4240</v>
@@ -9065,13 +9056,13 @@
     <row r="101" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12"/>
       <c r="B101" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>182</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>10</v>
@@ -9080,19 +9071,19 @@
         <v>17</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H101" s="13"/>
       <c r="I101" s="109"/>
       <c r="J101" s="181"/>
       <c r="K101" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>182</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N101" s="11" t="s">
         <v>10</v>
@@ -9108,13 +9099,13 @@
     <row r="102" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C102" s="31" t="s">
         <v>145</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E102" s="31" t="s">
         <v>14</v>
@@ -9123,19 +9114,19 @@
         <v>17</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H102" s="16"/>
       <c r="I102" s="123"/>
       <c r="J102" s="181"/>
       <c r="K102" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>203</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N102" s="11" t="s">
         <v>10</v>
@@ -9163,13 +9154,13 @@
       <c r="I103" s="100"/>
       <c r="J103" s="12"/>
       <c r="K103" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M103" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N103" s="11" t="s">
         <v>14</v>
@@ -9184,16 +9175,16 @@
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="256" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>10</v>
@@ -9202,19 +9193,19 @@
         <v>11</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="123"/>
       <c r="J104" s="12"/>
       <c r="K104" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>203</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N104" s="11" t="s">
         <v>14</v>
@@ -9230,10 +9221,10 @@
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="182"/>
       <c r="B105" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>301</v>
@@ -9245,19 +9236,19 @@
         <v>11</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="112"/>
       <c r="J105" s="12"/>
       <c r="K105" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L105" s="11" t="s">
         <v>215</v>
       </c>
       <c r="M105" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N105" s="11" t="s">
         <v>10</v>
@@ -9276,13 +9267,13 @@
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>14</v>
@@ -9291,19 +9282,19 @@
         <v>11</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="112"/>
       <c r="J106" s="12"/>
       <c r="K106" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L106" s="11" t="s">
         <v>232</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N106" s="11" t="s">
         <v>14</v>
@@ -9319,13 +9310,13 @@
     <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>288</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>10</v>
@@ -9334,19 +9325,19 @@
         <v>23</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="100"/>
       <c r="J107" s="12"/>
       <c r="K107" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N107" s="11" t="s">
         <v>10</v>
@@ -9362,13 +9353,13 @@
     <row r="108" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C108" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>10</v>
@@ -9377,7 +9368,7 @@
         <v>26</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H108" s="16"/>
       <c r="I108" s="100"/>
@@ -9392,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="75" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q108" s="180"/>
     </row>
@@ -9423,22 +9414,22 @@
         <v>0</v>
       </c>
       <c r="P109" s="107" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q109" s="184"/>
     </row>
     <row r="110" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="256" t="s">
+        <v>542</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>544</v>
-      </c>
       <c r="C110" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>10</v>
@@ -9447,7 +9438,7 @@
         <v>11</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="100"/>
@@ -9463,13 +9454,13 @@
     <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E111" s="187" t="s">
         <v>14</v>
@@ -9478,30 +9469,30 @@
         <v>11</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="100"/>
       <c r="J111" s="256" t="s">
+        <v>535</v>
+      </c>
+      <c r="K111" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="K111" s="8" t="s">
-        <v>537</v>
-      </c>
       <c r="L111" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P111" s="74" t="s">
         <v>541</v>
-      </c>
-      <c r="M111" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="N111" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P111" s="74" t="s">
-        <v>542</v>
       </c>
       <c r="Q111" s="9" t="s">
         <v>0</v>
@@ -9513,13 +9504,13 @@
     <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E112" s="187" t="s">
         <v>10</v>
@@ -9528,19 +9519,19 @@
         <v>11</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="100"/>
       <c r="J112" s="182"/>
       <c r="K112" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L112" s="11" t="s">
         <v>16</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N112" s="11" t="s">
         <v>10</v>
@@ -9549,20 +9540,20 @@
         <v>11</v>
       </c>
       <c r="P112" s="75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q112" s="13"/>
     </row>
     <row r="113" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>14</v>
@@ -9571,19 +9562,19 @@
         <v>23</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H113" s="13"/>
       <c r="I113" s="100"/>
       <c r="J113" s="182"/>
       <c r="K113" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L113" s="11" t="s">
         <v>276</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N113" s="11" t="s">
         <v>14</v>
@@ -9592,20 +9583,20 @@
         <v>17</v>
       </c>
       <c r="P113" s="75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q113" s="13"/>
     </row>
     <row r="114" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21"/>
       <c r="B114" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C114" s="31" t="s">
         <v>66</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E114" s="31" t="s">
         <v>14</v>
@@ -9614,19 +9605,19 @@
         <v>23</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H114" s="16"/>
       <c r="I114" s="100"/>
       <c r="J114" s="182"/>
       <c r="K114" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L114" s="11" t="s">
         <v>277</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N114" s="11" t="s">
         <v>10</v>
@@ -9635,7 +9626,7 @@
         <v>17</v>
       </c>
       <c r="P114" s="75" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q114" s="13"/>
     </row>
@@ -9658,13 +9649,13 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q115" s="13"/>
     </row>
     <row r="116" spans="1:22" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="166" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B116" s="191"/>
       <c r="C116" s="190"/>
@@ -9683,22 +9674,22 @@
       <c r="N116" s="31"/>
       <c r="O116" s="31"/>
       <c r="P116" s="107" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q116" s="16"/>
     </row>
     <row r="117" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="245" t="s">
+        <v>411</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>413</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>232</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>14</v>
@@ -9728,13 +9719,13 @@
     <row r="118" spans="1:22" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12"/>
       <c r="B118" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>215</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>14</v>
@@ -9748,7 +9739,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="100"/>
       <c r="J118" s="156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K118" s="332"/>
       <c r="L118" s="333"/>
@@ -9764,13 +9755,13 @@
     <row r="119" spans="1:22" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>182</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>14</v>
@@ -9784,16 +9775,16 @@
       <c r="H119" s="13"/>
       <c r="I119" s="100"/>
       <c r="J119" s="250" t="s">
+        <v>498</v>
+      </c>
+      <c r="K119" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="K119" s="42" t="s">
-        <v>500</v>
-      </c>
       <c r="L119" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N119" s="193" t="s">
         <v>14</v>
@@ -9802,20 +9793,20 @@
         <v>11</v>
       </c>
       <c r="P119" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q119" s="9"/>
     </row>
     <row r="120" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>14</v>
@@ -9830,13 +9821,13 @@
       <c r="I120" s="100"/>
       <c r="J120" s="12"/>
       <c r="K120" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L120" s="11" t="s">
         <v>38</v>
       </c>
       <c r="M120" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N120" s="148" t="s">
         <v>14</v>
@@ -9845,20 +9836,20 @@
         <v>11</v>
       </c>
       <c r="P120" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q120" s="13"/>
     </row>
     <row r="121" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="21"/>
       <c r="B121" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C121" s="31" t="s">
         <v>203</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E121" s="31" t="s">
         <v>10</v>
@@ -9867,19 +9858,19 @@
         <v>11</v>
       </c>
       <c r="G121" s="107" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H121" s="16"/>
       <c r="I121" s="100"/>
       <c r="J121" s="12"/>
       <c r="K121" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L121" s="11" t="s">
         <v>42</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N121" s="148" t="s">
         <v>10</v>
@@ -9888,7 +9879,7 @@
         <v>11</v>
       </c>
       <c r="P121" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q121" s="13"/>
       <c r="S121" s="46"/>
@@ -9905,13 +9896,13 @@
       <c r="I122" s="100"/>
       <c r="J122" s="12"/>
       <c r="K122" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L122" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N122" s="148" t="s">
         <v>10</v>
@@ -9920,23 +9911,23 @@
         <v>23</v>
       </c>
       <c r="P122" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q122" s="13"/>
       <c r="S122" s="46"/>
     </row>
     <row r="123" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="256" t="s">
+        <v>484</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>486</v>
-      </c>
       <c r="C123" s="219" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>10</v>
@@ -9945,19 +9936,19 @@
         <v>11</v>
       </c>
       <c r="G123" s="74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="100"/>
       <c r="J123" s="21"/>
       <c r="K123" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L123" s="31" t="s">
         <v>35</v>
       </c>
       <c r="M123" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N123" s="149" t="s">
         <v>14</v>
@@ -9966,7 +9957,7 @@
         <v>23</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q123" s="16"/>
       <c r="S123" s="46"/>
@@ -9974,13 +9965,13 @@
     <row r="124" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="315"/>
       <c r="B124" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C124" s="220" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E124" s="23" t="s">
         <v>10</v>
@@ -9989,7 +9980,7 @@
         <v>11</v>
       </c>
       <c r="G124" s="62" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="111"/>
@@ -10006,13 +9997,13 @@
     <row r="125" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="316"/>
       <c r="B125" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C125" s="299" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>14</v>
@@ -10021,21 +10012,21 @@
         <v>11</v>
       </c>
       <c r="G125" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H125" s="16"/>
       <c r="I125" s="111"/>
       <c r="J125" s="256" t="s">
+        <v>442</v>
+      </c>
+      <c r="K125" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="K125" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>94</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N125" s="8" t="s">
         <v>14</v>
@@ -10092,13 +10083,13 @@
       <c r="I127" s="100"/>
       <c r="J127" s="21"/>
       <c r="K127" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L127" s="31" t="s">
         <v>142</v>
       </c>
       <c r="M127" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N127" s="31" t="s">
         <v>10</v>
@@ -10141,7 +10132,7 @@
     </row>
     <row r="129" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="378" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B129" s="126"/>
       <c r="C129" s="399"/>
@@ -10152,7 +10143,7 @@
       <c r="H129" s="361"/>
       <c r="I129" s="128"/>
       <c r="J129" s="378" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K129" s="126"/>
       <c r="L129" s="399"/>
@@ -10219,16 +10210,16 @@
     </row>
     <row r="131" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="245" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>14</v>
@@ -10244,16 +10235,16 @@
       </c>
       <c r="I131" s="124"/>
       <c r="J131" s="256" t="s">
+        <v>582</v>
+      </c>
+      <c r="K131" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="K131" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="L131" s="8" t="s">
         <v>159</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N131" s="8" t="s">
         <v>14</v>
@@ -10262,7 +10253,7 @@
         <v>11</v>
       </c>
       <c r="P131" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q131" s="9"/>
       <c r="S131" s="46"/>
@@ -10271,13 +10262,13 @@
     <row r="132" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>
       <c r="B132" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>10</v>
@@ -10292,13 +10283,13 @@
       <c r="I132" s="274"/>
       <c r="J132" s="12"/>
       <c r="K132" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L132" s="11" t="s">
         <v>153</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N132" s="11" t="s">
         <v>10</v>
@@ -10307,7 +10298,7 @@
         <v>11</v>
       </c>
       <c r="P132" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q132" s="13"/>
       <c r="S132" s="46"/>
@@ -10316,13 +10307,13 @@
     <row r="133" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12"/>
       <c r="B133" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>234</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>14</v>
@@ -10337,13 +10328,13 @@
       <c r="I133" s="109"/>
       <c r="J133" s="12"/>
       <c r="K133" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L133" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N133" s="11" t="s">
         <v>14</v>
@@ -10352,7 +10343,7 @@
         <v>11</v>
       </c>
       <c r="P133" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q133" s="13"/>
       <c r="S133" s="46"/>
@@ -10361,13 +10352,13 @@
     <row r="134" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
       <c r="B134" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>228</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>10</v>
@@ -10382,13 +10373,13 @@
       <c r="I134" s="128"/>
       <c r="J134" s="21"/>
       <c r="K134" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L134" s="31" t="s">
         <v>163</v>
       </c>
       <c r="M134" s="31" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N134" s="31" t="s">
         <v>10</v>
@@ -10397,7 +10388,7 @@
         <v>11</v>
       </c>
       <c r="P134" s="195" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q134" s="16"/>
       <c r="S134" s="45"/>
@@ -10406,19 +10397,19 @@
     <row r="135" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12"/>
       <c r="B135" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C135" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>429</v>
       </c>
       <c r="G135" s="33" t="s">
         <v>348</v>
@@ -10439,13 +10430,13 @@
     <row r="136" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="11" t="s">
-        <v>427</v>
-      </c>
       <c r="D136" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>10</v>
@@ -10461,16 +10452,16 @@
       </c>
       <c r="I136" s="109"/>
       <c r="J136" s="256" t="s">
+        <v>606</v>
+      </c>
+      <c r="K136" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="K136" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>62</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N136" s="8" t="s">
         <v>10</v>
@@ -10479,7 +10470,7 @@
         <v>11</v>
       </c>
       <c r="P136" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q136" s="9"/>
       <c r="S136" s="45"/>
@@ -10494,13 +10485,13 @@
     <row r="137" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>10</v>
@@ -10509,19 +10500,19 @@
         <v>23</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H137" s="13"/>
       <c r="I137" s="109"/>
       <c r="J137" s="12"/>
       <c r="K137" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L137" s="11" t="s">
         <v>367</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N137" s="11" t="s">
         <v>14</v>
@@ -10530,7 +10521,7 @@
         <v>11</v>
       </c>
       <c r="P137" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q137" s="13"/>
       <c r="S137" s="45"/>
@@ -10545,13 +10536,13 @@
     <row r="138" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="B138" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E138" s="31" t="s">
         <v>10</v>
@@ -10560,19 +10551,19 @@
         <v>23</v>
       </c>
       <c r="G138" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H138" s="16"/>
       <c r="I138" s="109"/>
       <c r="J138" s="12"/>
       <c r="K138" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L138" s="11" t="s">
         <v>66</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N138" s="11" t="s">
         <v>10</v>
@@ -10581,7 +10572,7 @@
         <v>11</v>
       </c>
       <c r="P138" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q138" s="13"/>
       <c r="S138" s="45"/>
@@ -10605,13 +10596,13 @@
       <c r="I139" s="158"/>
       <c r="J139" s="12"/>
       <c r="K139" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L139" s="11" t="s">
         <v>46</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N139" s="11" t="s">
         <v>14</v>
@@ -10620,7 +10611,7 @@
         <v>11</v>
       </c>
       <c r="P139" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q139" s="13"/>
       <c r="U139" s="46"/>
@@ -10632,16 +10623,16 @@
     </row>
     <row r="140" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="256" t="s">
+        <v>429</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>379</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>10</v>
@@ -10650,19 +10641,19 @@
         <v>11</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H140" s="9"/>
       <c r="I140" s="112"/>
       <c r="J140" s="21"/>
       <c r="K140" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="L140" s="31" t="s">
         <v>612</v>
       </c>
-      <c r="L140" s="31" t="s">
-        <v>613</v>
-      </c>
       <c r="M140" s="31" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N140" s="31" t="s">
         <v>14</v>
@@ -10671,7 +10662,7 @@
         <v>23</v>
       </c>
       <c r="P140" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q140" s="16"/>
       <c r="U140" s="46"/>
@@ -10684,13 +10675,13 @@
     <row r="141" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12"/>
       <c r="B141" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>14</v>
@@ -10699,7 +10690,7 @@
         <v>11</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="124"/>
@@ -10725,12 +10716,12 @@
         <v>11</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H142" s="13"/>
       <c r="I142" s="109"/>
       <c r="J142" s="83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K142" s="217"/>
       <c r="L142" s="218"/>
@@ -10750,13 +10741,13 @@
     <row r="143" spans="1:27" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12"/>
       <c r="B143" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>10</v>
@@ -10765,21 +10756,21 @@
         <v>23</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="124"/>
       <c r="J143" s="256" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>16</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N143" s="8" t="s">
         <v>14</v>
@@ -10788,7 +10779,7 @@
         <v>11</v>
       </c>
       <c r="P143" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q143" s="9"/>
       <c r="X143" s="46"/>
@@ -10799,13 +10790,13 @@
     <row r="144" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="21"/>
       <c r="B144" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C144" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E144" s="31" t="s">
         <v>14</v>
@@ -10814,19 +10805,19 @@
         <v>23</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H144" s="16"/>
       <c r="I144" s="125"/>
       <c r="J144" s="12"/>
       <c r="K144" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L144" s="11" t="s">
         <v>276</v>
       </c>
       <c r="M144" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N144" s="11" t="s">
         <v>10</v>
@@ -10835,7 +10826,7 @@
         <v>11</v>
       </c>
       <c r="P144" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q144" s="13"/>
       <c r="X144" s="45"/>
@@ -10855,22 +10846,22 @@
       <c r="I145" s="123"/>
       <c r="J145" s="12"/>
       <c r="K145" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L145" s="11" t="s">
         <v>277</v>
       </c>
       <c r="M145" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P145" s="34" t="s">
         <v>514</v>
-      </c>
-      <c r="N145" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O145" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P145" s="34" t="s">
-        <v>515</v>
       </c>
       <c r="Q145" s="13"/>
       <c r="U145" s="45"/>
@@ -10883,16 +10874,16 @@
     </row>
     <row r="146" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="256" t="s">
+        <v>437</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>439</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>10</v>
@@ -10907,13 +10898,13 @@
       <c r="I146" s="100"/>
       <c r="J146" s="12"/>
       <c r="K146" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L146" s="11" t="s">
         <v>234</v>
       </c>
       <c r="M146" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N146" s="11" t="s">
         <v>14</v>
@@ -10922,7 +10913,7 @@
         <v>11</v>
       </c>
       <c r="P146" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q146" s="13"/>
       <c r="U146" s="45"/>
@@ -10936,13 +10927,13 @@
     <row r="147" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>14</v>
@@ -10979,13 +10970,13 @@
     <row r="148" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12"/>
       <c r="B148" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>14</v>
@@ -11020,13 +11011,13 @@
     <row r="149" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12"/>
       <c r="B149" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>14</v>
@@ -11069,7 +11060,7 @@
       <c r="H150" s="13"/>
       <c r="I150" s="128"/>
       <c r="J150" s="246" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K150" s="190"/>
       <c r="L150" s="116"/>
@@ -11084,13 +11075,13 @@
     <row r="151" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="101"/>
       <c r="B151" s="67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C151" s="67" t="s">
         <v>107</v>
       </c>
       <c r="D151" s="67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E151" s="67" t="s">
         <v>14</v>
@@ -11132,13 +11123,13 @@
     <row r="152" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="B152" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C152" s="31" t="s">
         <v>128</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E152" s="31" t="s">
         <v>14</v>
@@ -11208,7 +11199,7 @@
     </row>
     <row r="154" spans="1:27" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="403" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B154" s="78"/>
       <c r="C154" s="76"/>
@@ -11220,13 +11211,13 @@
       <c r="I154" s="109"/>
       <c r="J154" s="12"/>
       <c r="K154" s="11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="L154" s="11" t="s">
         <v>381</v>
       </c>
       <c r="M154" s="11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="N154" s="11" t="s">
         <v>14</v>
@@ -11249,16 +11240,16 @@
     </row>
     <row r="155" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A155" s="345" t="s">
+        <v>566</v>
+      </c>
+      <c r="B155" s="52" t="s">
         <v>567</v>
-      </c>
-      <c r="B155" s="52" t="s">
-        <v>568</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>10</v>
@@ -11267,7 +11258,7 @@
         <v>11</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H155" s="17">
         <v>4183</v>
@@ -11275,13 +11266,13 @@
       <c r="I155" s="123"/>
       <c r="J155" s="12"/>
       <c r="K155" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L155" s="11" t="s">
         <v>379</v>
       </c>
       <c r="M155" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N155" s="11" t="s">
         <v>10</v>
@@ -11306,13 +11297,13 @@
     <row r="156" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>14</v>
@@ -11321,19 +11312,19 @@
         <v>11</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H156" s="47"/>
       <c r="I156" s="100"/>
       <c r="J156" s="12"/>
       <c r="K156" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L156" s="11" t="s">
         <v>13</v>
       </c>
       <c r="M156" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N156" s="11" t="s">
         <v>10</v>
@@ -11358,13 +11349,13 @@
     <row r="157" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="15"/>
       <c r="B157" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>10</v>
@@ -11373,19 +11364,19 @@
         <v>11</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H157" s="47"/>
       <c r="I157" s="124"/>
       <c r="J157" s="21"/>
       <c r="K157" s="31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="L157" s="31" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="M157" s="31" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N157" s="31" t="s">
         <v>14</v>
@@ -11394,7 +11385,7 @@
         <v>23</v>
       </c>
       <c r="P157" s="32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Q157" s="16"/>
       <c r="S157" s="45"/>
@@ -11409,13 +11400,13 @@
     <row r="158" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15"/>
       <c r="B158" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E158" s="10" t="s">
         <v>14</v>
@@ -11424,7 +11415,7 @@
         <v>11</v>
       </c>
       <c r="G158" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H158" s="47"/>
       <c r="I158" s="100"/>
@@ -11448,13 +11439,13 @@
     <row r="159" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>14</v>
@@ -11463,7 +11454,7 @@
         <v>17</v>
       </c>
       <c r="G159" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H159" s="47"/>
       <c r="I159" s="100"/>
@@ -11502,13 +11493,13 @@
     <row r="160" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
       <c r="B160" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>107</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E160" s="19" t="s">
         <v>14</v>
@@ -11517,7 +11508,7 @@
         <v>17</v>
       </c>
       <c r="G160" s="37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H160" s="44"/>
       <c r="I160" s="100"/>
@@ -11577,16 +11568,16 @@
     </row>
     <row r="162" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="257" t="s">
+        <v>575</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>10</v>
@@ -11595,7 +11586,7 @@
         <v>11</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H162" s="17"/>
       <c r="I162" s="100"/>
@@ -11633,13 +11624,13 @@
     <row r="163" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
       <c r="B163" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>215</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>10</v>
@@ -11648,7 +11639,7 @@
         <v>11</v>
       </c>
       <c r="G163" s="175" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H163" s="47"/>
       <c r="I163" s="100"/>
@@ -11697,7 +11688,7 @@
         <v>11</v>
       </c>
       <c r="G164" s="175" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H164" s="47"/>
       <c r="I164" s="100"/>
@@ -11736,12 +11727,12 @@
         <v>11</v>
       </c>
       <c r="G165" s="175" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H165" s="47"/>
       <c r="I165" s="100"/>
       <c r="J165" s="246" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K165" s="317"/>
       <c r="L165" s="318"/>
@@ -11764,13 +11755,13 @@
     <row r="166" spans="1:27" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>182</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>14</v>
@@ -11779,21 +11770,21 @@
         <v>23</v>
       </c>
       <c r="G166" s="175" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H166" s="47"/>
       <c r="I166" s="100"/>
       <c r="J166" s="245" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M166" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N166" s="8" t="s">
         <v>14</v>
@@ -11802,7 +11793,7 @@
         <v>11</v>
       </c>
       <c r="P166" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q166" s="9"/>
       <c r="R166"/>
@@ -11828,19 +11819,19 @@
         <v>26</v>
       </c>
       <c r="G167" s="175" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H167" s="47"/>
       <c r="I167" s="100"/>
       <c r="J167" s="12"/>
       <c r="K167" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L167" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M167" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N167" s="11" t="s">
         <v>10</v>
@@ -11849,7 +11840,7 @@
         <v>11</v>
       </c>
       <c r="P167" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q167" s="13"/>
       <c r="R167"/>
@@ -11875,19 +11866,19 @@
         <v>26</v>
       </c>
       <c r="G168" s="176" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H168" s="44"/>
       <c r="I168" s="100"/>
       <c r="J168" s="12"/>
       <c r="K168" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L168" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M168" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N168" s="11" t="s">
         <v>14</v>
@@ -11896,7 +11887,7 @@
         <v>23</v>
       </c>
       <c r="P168" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q168" s="13"/>
       <c r="R168"/>
@@ -11924,13 +11915,13 @@
       <c r="I169" s="100"/>
       <c r="J169" s="12"/>
       <c r="K169" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L169" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M169" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N169" s="11" t="s">
         <v>14</v>
@@ -11939,7 +11930,7 @@
         <v>23</v>
       </c>
       <c r="P169" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q169" s="13"/>
       <c r="R169"/>
@@ -11981,13 +11972,13 @@
       <c r="I170" s="100"/>
       <c r="J170" s="12"/>
       <c r="K170" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L170" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M170" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N170" s="11" t="s">
         <v>10</v>
@@ -11996,7 +11987,7 @@
         <v>11</v>
       </c>
       <c r="P170" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q170" s="13"/>
       <c r="R170"/>
@@ -12036,13 +12027,13 @@
       <c r="I171" s="124"/>
       <c r="J171" s="12"/>
       <c r="K171" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L171" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M171" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N171" s="11" t="s">
         <v>14</v>
@@ -12051,7 +12042,7 @@
         <v>23</v>
       </c>
       <c r="P171" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q171" s="13"/>
       <c r="R171"/>
@@ -12079,13 +12070,13 @@
       <c r="I172" s="123"/>
       <c r="J172" s="21"/>
       <c r="K172" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L172" s="31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M172" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N172" s="31" t="s">
         <v>10</v>
@@ -12094,7 +12085,7 @@
         <v>23</v>
       </c>
       <c r="P172" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q172" s="16"/>
       <c r="R172"/>
@@ -12152,7 +12143,7 @@
       <c r="H174" s="44"/>
       <c r="I174" s="130"/>
       <c r="J174" s="85" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K174" s="190"/>
       <c r="L174" s="116"/>
@@ -12183,16 +12174,16 @@
       <c r="H175" s="28"/>
       <c r="I175" s="130"/>
       <c r="J175" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="K175" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="K175" s="38" t="s">
-        <v>655</v>
-      </c>
       <c r="L175" s="38" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M175" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N175" s="38" t="s">
         <v>10</v>
@@ -12201,7 +12192,7 @@
         <v>11</v>
       </c>
       <c r="P175" s="61" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q175" s="39"/>
       <c r="R175"/>
@@ -12217,16 +12208,16 @@
     </row>
     <row r="176" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="256" t="s">
+        <v>520</v>
+      </c>
+      <c r="B176" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>14</v>
@@ -12235,21 +12226,21 @@
         <v>11</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H176" s="9"/>
       <c r="I176" s="130"/>
       <c r="J176" s="348" t="s">
+        <v>652</v>
+      </c>
+      <c r="K176" s="11" t="s">
         <v>654</v>
-      </c>
-      <c r="K176" s="11" t="s">
-        <v>656</v>
       </c>
       <c r="L176" s="11" t="s">
         <v>276</v>
       </c>
       <c r="M176" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N176" s="11" t="s">
         <v>14</v>
@@ -12258,7 +12249,7 @@
         <v>11</v>
       </c>
       <c r="P176" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q176" s="13"/>
       <c r="R176"/>
@@ -12275,13 +12266,13 @@
     <row r="177" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>14</v>
@@ -12290,19 +12281,19 @@
         <v>11</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H177" s="13"/>
       <c r="I177" s="130"/>
       <c r="J177" s="48"/>
       <c r="K177" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L177" s="23" t="s">
         <v>277</v>
       </c>
       <c r="M177" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N177" s="23" t="s">
         <v>10</v>
@@ -12311,7 +12302,7 @@
         <v>11</v>
       </c>
       <c r="P177" s="62" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q177" s="25"/>
       <c r="R177"/>
@@ -12328,13 +12319,13 @@
     <row r="178" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="101"/>
       <c r="B178" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C178" s="67" t="s">
         <v>224</v>
       </c>
       <c r="D178" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E178" s="67" t="s">
         <v>10</v>
@@ -12343,19 +12334,19 @@
         <v>11</v>
       </c>
       <c r="G178" s="243" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H178" s="73"/>
       <c r="I178" s="130"/>
       <c r="J178" s="12"/>
       <c r="K178" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L178" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M178" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N178" s="11" t="s">
         <v>14</v>
@@ -12364,7 +12355,7 @@
         <v>11</v>
       </c>
       <c r="P178" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q178" s="13"/>
       <c r="R178"/>
@@ -12390,13 +12381,13 @@
       <c r="I179" s="131"/>
       <c r="J179" s="12"/>
       <c r="K179" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L179" s="11" t="s">
         <v>358</v>
       </c>
       <c r="M179" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N179" s="11" t="s">
         <v>14</v>
@@ -12405,7 +12396,7 @@
         <v>23</v>
       </c>
       <c r="P179" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q179" s="13"/>
       <c r="R179"/>
@@ -12431,13 +12422,13 @@
       <c r="I180" s="130"/>
       <c r="J180" s="12"/>
       <c r="K180" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L180" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M180" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N180" s="11" t="s">
         <v>10</v>
@@ -12446,7 +12437,7 @@
         <v>23</v>
       </c>
       <c r="P180" s="33" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="Q180" s="13"/>
     </row>
@@ -12463,16 +12454,16 @@
       <c r="H181" s="203"/>
       <c r="I181" s="131"/>
       <c r="J181" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K181" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L181" s="221" t="s">
         <v>224</v>
       </c>
       <c r="M181" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N181" s="23" t="s">
         <v>14</v>
@@ -12513,13 +12504,13 @@
       <c r="I182" s="81"/>
       <c r="J182" s="147"/>
       <c r="K182" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L182" s="11" t="s">
         <v>182</v>
       </c>
       <c r="M182" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N182" s="11" t="s">
         <v>10</v>
@@ -12528,7 +12519,7 @@
         <v>11</v>
       </c>
       <c r="P182" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q182" s="146"/>
     </row>
@@ -12560,13 +12551,13 @@
       <c r="I183" s="89"/>
       <c r="J183" s="310"/>
       <c r="K183" s="31" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L183" s="31" t="s">
         <v>145</v>
       </c>
       <c r="M183" s="31" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N183" s="31" t="s">
         <v>10</v>
@@ -12575,7 +12566,7 @@
         <v>11</v>
       </c>
       <c r="P183" s="32" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="Q183" s="212"/>
       <c r="T183" t="s">
@@ -12640,16 +12631,16 @@
       </c>
       <c r="I185" s="340"/>
       <c r="J185" s="350" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K185" s="334" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L185" s="334" t="s">
         <v>142</v>
       </c>
       <c r="M185" s="334" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="N185" s="334" t="s">
         <v>10</v>
@@ -12658,7 +12649,7 @@
         <v>11</v>
       </c>
       <c r="P185" s="335" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="Q185" s="404"/>
     </row>
@@ -12680,13 +12671,13 @@
       <c r="I186" s="139"/>
       <c r="J186" s="336"/>
       <c r="K186" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L186" s="11" t="s">
         <v>215</v>
       </c>
       <c r="M186" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N186" s="11" t="s">
         <v>10</v>
@@ -12695,7 +12686,7 @@
         <v>11</v>
       </c>
       <c r="P186" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="Q186" s="13"/>
     </row>
@@ -12717,13 +12708,13 @@
       <c r="I187" s="57"/>
       <c r="J187" s="336"/>
       <c r="K187" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L187" s="11" t="s">
         <v>203</v>
       </c>
       <c r="M187" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="N187" s="11" t="s">
         <v>10</v>
@@ -12732,7 +12723,7 @@
         <v>17</v>
       </c>
       <c r="P187" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="Q187" s="13"/>
     </row>
@@ -12754,13 +12745,13 @@
       <c r="I188" s="89"/>
       <c r="J188" s="336"/>
       <c r="K188" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L188" s="11" t="s">
         <v>207</v>
       </c>
       <c r="M188" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="N188" s="11" t="s">
         <v>14</v>
@@ -12769,7 +12760,7 @@
         <v>17</v>
       </c>
       <c r="P188" s="33" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="Q188" s="13"/>
     </row>
@@ -13142,7 +13133,7 @@
         <v>304</v>
       </c>
       <c r="L200" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M200" s="11" t="s">
         <v>304</v>
@@ -13266,16 +13257,16 @@
       <c r="H204" s="13"/>
       <c r="I204" s="108"/>
       <c r="J204" s="257" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L204" s="7" t="s">
         <v>142</v>
       </c>
       <c r="M204" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N204" s="7" t="s">
         <v>10</v>
@@ -13284,7 +13275,7 @@
         <v>11</v>
       </c>
       <c r="P204" s="35" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Q204" s="17"/>
     </row>
@@ -13306,22 +13297,22 @@
       <c r="I205" s="108"/>
       <c r="J205" s="15"/>
       <c r="K205" s="10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L205" s="10" t="s">
         <v>215</v>
       </c>
       <c r="M205" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="N205" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O205" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P205" s="22" t="s">
         <v>672</v>
-      </c>
-      <c r="N205" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O205" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P205" s="22" t="s">
-        <v>674</v>
       </c>
       <c r="Q205" s="47"/>
     </row>
@@ -13345,13 +13336,13 @@
       <c r="I206" s="108"/>
       <c r="J206" s="43"/>
       <c r="K206" s="19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L206" s="19" t="s">
         <v>182</v>
       </c>
       <c r="M206" s="19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N206" s="19" t="s">
         <v>10</v>
@@ -13360,7 +13351,7 @@
         <v>17</v>
       </c>
       <c r="P206" s="37" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Q206" s="44"/>
     </row>
@@ -13385,7 +13376,7 @@
     </row>
     <row r="208" spans="1:17" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B208" s="120"/>
       <c r="C208" s="67"/>
@@ -13408,16 +13399,16 @@
     </row>
     <row r="209" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="351" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B209" s="67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C209" s="67" t="s">
         <v>120</v>
       </c>
       <c r="D209" s="67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E209" s="67" t="s">
         <v>10</v>
@@ -13426,7 +13417,7 @@
         <v>11</v>
       </c>
       <c r="G209" s="134" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H209" s="73"/>
       <c r="I209" s="89"/>
@@ -13450,13 +13441,13 @@
     <row r="210" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E210" s="11" t="s">
         <v>10</v>
@@ -13465,7 +13456,7 @@
         <v>11</v>
       </c>
       <c r="G210" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H210" s="262"/>
       <c r="I210" s="89"/>
@@ -13489,13 +13480,13 @@
     <row r="211" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E211" s="11" t="s">
         <v>10</v>
@@ -13504,7 +13495,7 @@
         <v>11</v>
       </c>
       <c r="G211" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H211" s="262"/>
       <c r="I211" s="136"/>
@@ -13526,13 +13517,13 @@
     <row r="212" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>14</v>
@@ -13541,7 +13532,7 @@
         <v>11</v>
       </c>
       <c r="G212" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H212" s="262"/>
       <c r="I212" s="89"/>
@@ -13569,13 +13560,13 @@
     <row r="213" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E213" s="11" t="s">
         <v>14</v>
@@ -13584,7 +13575,7 @@
         <v>11</v>
       </c>
       <c r="G213" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H213" s="262"/>
       <c r="I213" s="89"/>
@@ -13614,13 +13605,13 @@
     <row r="214" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>264</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E214" s="11" t="s">
         <v>10</v>
@@ -13629,7 +13620,7 @@
         <v>23</v>
       </c>
       <c r="G214" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H214" s="262"/>
       <c r="I214" s="89"/>
@@ -13657,13 +13648,13 @@
     <row r="215" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
       <c r="B215" s="31" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C215" s="31" t="s">
         <v>128</v>
       </c>
       <c r="D215" s="31" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E215" s="31" t="s">
         <v>10</v>
@@ -13672,7 +13663,7 @@
         <v>23</v>
       </c>
       <c r="G215" s="32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H215" s="263"/>
       <c r="I215" s="89"/>
@@ -13730,16 +13721,16 @@
     </row>
     <row r="217" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="256" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>14</v>
@@ -13748,7 +13739,7 @@
         <v>11</v>
       </c>
       <c r="G217" s="34" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H217" s="261"/>
       <c r="I217" s="89"/>
@@ -13776,13 +13767,13 @@
     <row r="218" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12"/>
       <c r="B218" s="11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E218" s="11" t="s">
         <v>14</v>
@@ -13805,13 +13796,13 @@
     <row r="219" spans="1:19" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12"/>
       <c r="B219" s="11" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>14</v>
@@ -13836,13 +13827,13 @@
     <row r="220" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E220" s="11" t="s">
         <v>10</v>
@@ -13854,16 +13845,16 @@
       <c r="H220" s="262"/>
       <c r="I220" s="89"/>
       <c r="J220" s="366" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K220" s="42" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L220" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M220" s="8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="N220" s="8" t="s">
         <v>14</v>
@@ -13872,20 +13863,20 @@
         <v>11</v>
       </c>
       <c r="P220" s="74" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q220" s="9"/>
     </row>
     <row r="221" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="11" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>380</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>10</v>
@@ -13897,16 +13888,16 @@
       <c r="H221" s="262"/>
       <c r="I221" s="89"/>
       <c r="J221" s="258" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K221" s="42" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L221" s="42" t="s">
         <v>77</v>
       </c>
       <c r="M221" s="42" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="N221" s="42" t="s">
         <v>10</v>
@@ -13915,20 +13906,20 @@
         <v>11</v>
       </c>
       <c r="P221" s="70" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q221" s="110"/>
     </row>
     <row r="222" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
       <c r="B222" s="31" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C222" s="31" t="s">
         <v>255</v>
       </c>
       <c r="D222" s="31" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E222" s="31" t="s">
         <v>10</v>
@@ -13976,7 +13967,7 @@
     </row>
     <row r="224" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="256" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>64</v>
@@ -14045,16 +14036,16 @@
       <c r="H226" s="262"/>
       <c r="I226" s="137"/>
       <c r="J226" s="256" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K226" s="8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="L226" s="8" t="s">
         <v>120</v>
       </c>
       <c r="M226" s="8" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="N226" s="8" t="s">
         <v>14</v>
@@ -14063,20 +14054,20 @@
         <v>11</v>
       </c>
       <c r="P226" s="34" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q226" s="9"/>
     </row>
     <row r="227" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="11" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>358</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>10</v>
@@ -14085,19 +14076,19 @@
         <v>11</v>
       </c>
       <c r="G227" s="33" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H227" s="262"/>
       <c r="I227" s="137"/>
       <c r="J227" s="12"/>
       <c r="K227" s="81" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="L227" s="11" t="s">
         <v>98</v>
       </c>
       <c r="M227" s="81" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="N227" s="11" t="s">
         <v>14</v>
@@ -14106,20 +14097,20 @@
         <v>11</v>
       </c>
       <c r="P227" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q227" s="13"/>
     </row>
     <row r="228" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
       <c r="B228" s="31" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C228" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D228" s="31" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E228" s="31" t="s">
         <v>10</v>
@@ -14128,19 +14119,19 @@
         <v>23</v>
       </c>
       <c r="G228" s="32" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H228" s="263"/>
       <c r="I228" s="89"/>
       <c r="J228" s="12"/>
       <c r="K228" s="11" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="L228" s="11" t="s">
         <v>54</v>
       </c>
       <c r="M228" s="11" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N228" s="11" t="s">
         <v>14</v>
@@ -14149,7 +14140,7 @@
         <v>17</v>
       </c>
       <c r="P228" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q228" s="13"/>
     </row>
@@ -14167,13 +14158,13 @@
       </c>
       <c r="J229" s="21"/>
       <c r="K229" s="31" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="L229" s="31" t="s">
         <v>116</v>
       </c>
       <c r="M229" s="31" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N229" s="31" t="s">
         <v>10</v>
@@ -14182,22 +14173,22 @@
         <v>11</v>
       </c>
       <c r="P229" s="32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Q229" s="16"/>
     </row>
     <row r="230" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="256" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>10</v>
@@ -14206,7 +14197,7 @@
         <v>11</v>
       </c>
       <c r="G230" s="34" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H230" s="261"/>
       <c r="I230" s="89"/>
@@ -14221,13 +14212,13 @@
     <row r="231" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="41"/>
       <c r="B231" s="42" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C231" s="42" t="s">
         <v>215</v>
       </c>
       <c r="D231" s="42" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E231" s="42" t="s">
         <v>10</v>
@@ -14236,21 +14227,21 @@
         <v>11</v>
       </c>
       <c r="G231" s="70" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H231" s="382"/>
       <c r="I231" s="100"/>
       <c r="J231" s="384" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="K231" s="8" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="L231" s="8" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="M231" s="8" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="N231" s="8" t="s">
         <v>14</v>
@@ -14259,20 +14250,20 @@
         <v>11</v>
       </c>
       <c r="P231" s="34" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q231" s="9"/>
     </row>
     <row r="232" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="41"/>
       <c r="B232" s="42" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C232" s="42" t="s">
         <v>182</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E232" s="42" t="s">
         <v>14</v>
@@ -14281,21 +14272,21 @@
         <v>11</v>
       </c>
       <c r="G232" s="70" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H232" s="382"/>
       <c r="I232" s="100"/>
       <c r="J232" s="348" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K232" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="L232" s="11" t="s">
         <v>270</v>
       </c>
       <c r="M232" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="N232" s="11" t="s">
         <v>14</v>
@@ -14304,20 +14295,20 @@
         <v>11</v>
       </c>
       <c r="P232" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q232" s="13"/>
     </row>
     <row r="233" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="41"/>
       <c r="B233" s="42" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C233" s="42" t="s">
         <v>145</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E233" s="42" t="s">
         <v>14</v>
@@ -14326,19 +14317,19 @@
         <v>11</v>
       </c>
       <c r="G233" s="70" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H233" s="382"/>
       <c r="I233" s="100"/>
       <c r="J233" s="12"/>
       <c r="K233" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L233" s="11" t="s">
         <v>90</v>
       </c>
       <c r="M233" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N233" s="11" t="s">
         <v>10</v>
@@ -14347,20 +14338,20 @@
         <v>11</v>
       </c>
       <c r="P233" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q233" s="13"/>
     </row>
     <row r="234" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="98"/>
       <c r="B234" s="99" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C234" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D234" s="99" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E234" s="99" t="s">
         <v>14</v>
@@ -14369,19 +14360,19 @@
         <v>23</v>
       </c>
       <c r="G234" s="241" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H234" s="383"/>
       <c r="I234" s="100"/>
       <c r="J234" s="12"/>
       <c r="K234" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="L234" s="11" t="s">
         <v>305</v>
       </c>
       <c r="M234" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="N234" s="11" t="s">
         <v>10</v>
@@ -14390,7 +14381,7 @@
         <v>23</v>
       </c>
       <c r="P234" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q234" s="13"/>
     </row>
@@ -14406,13 +14397,13 @@
       <c r="I235" s="100"/>
       <c r="J235" s="12"/>
       <c r="K235" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="L235" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M235" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="N235" s="11" t="s">
         <v>14</v>
@@ -14421,13 +14412,13 @@
         <v>23</v>
       </c>
       <c r="P235" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q235" s="13"/>
     </row>
     <row r="236" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="166" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B236" s="190"/>
       <c r="C236" s="50"/>
@@ -14439,13 +14430,13 @@
       <c r="I236" s="100"/>
       <c r="J236" s="12"/>
       <c r="K236" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="L236" s="11" t="s">
         <v>101</v>
       </c>
       <c r="M236" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="N236" s="11" t="s">
         <v>14</v>
@@ -14454,22 +14445,22 @@
         <v>23</v>
       </c>
       <c r="P236" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q236" s="13"/>
     </row>
-    <row r="237" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="256" t="s">
         <v>23</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>14</v>
@@ -14478,19 +14469,19 @@
         <v>11</v>
       </c>
       <c r="G237" s="34" t="s">
-        <v>772</v>
+        <v>682</v>
       </c>
       <c r="H237" s="261"/>
       <c r="I237" s="108"/>
       <c r="J237" s="12"/>
       <c r="K237" s="11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L237" s="11" t="s">
         <v>308</v>
       </c>
       <c r="M237" s="11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="N237" s="11" t="s">
         <v>14</v>
@@ -14499,7 +14490,7 @@
         <v>23</v>
       </c>
       <c r="P237" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q237" s="13"/>
       <c r="U237" t="s">
@@ -14509,13 +14500,13 @@
     <row r="238" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12"/>
       <c r="B238" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>270</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E238" s="11" t="s">
         <v>14</v>
@@ -14523,22 +14514,22 @@
       <c r="F238" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G238" s="33" t="s">
-        <v>772</v>
+      <c r="G238" s="34" t="s">
+        <v>682</v>
       </c>
       <c r="H238" s="262"/>
       <c r="I238" s="108"/>
       <c r="J238" s="21" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K238" s="31" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="L238" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M238" s="31" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N238" s="31" t="s">
         <v>14</v>
@@ -14547,20 +14538,20 @@
         <v>11</v>
       </c>
       <c r="P238" s="32" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q238" s="16"/>
     </row>
     <row r="239" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12"/>
       <c r="B239" s="11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E239" s="11" t="s">
         <v>14</v>
@@ -14568,8 +14559,8 @@
       <c r="F239" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G239" s="33" t="s">
-        <v>772</v>
+      <c r="G239" s="34" t="s">
+        <v>682</v>
       </c>
       <c r="H239" s="262"/>
       <c r="I239" s="108"/>
@@ -14585,13 +14576,13 @@
     <row r="240" spans="1:21" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12"/>
       <c r="B240" s="11" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>305</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E240" s="11" t="s">
         <v>10</v>
@@ -14599,13 +14590,13 @@
       <c r="F240" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G240" s="33" t="s">
-        <v>772</v>
+      <c r="G240" s="34" t="s">
+        <v>682</v>
       </c>
       <c r="H240" s="262"/>
       <c r="I240" s="231"/>
       <c r="J240" s="83" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="K240" s="94"/>
       <c r="L240" s="66"/>
@@ -14630,16 +14621,16 @@
       <c r="H241" s="262"/>
       <c r="I241" s="231"/>
       <c r="J241" s="258" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="K241" s="370" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="L241" s="367" t="s">
         <v>142</v>
       </c>
       <c r="M241" s="367" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N241" s="367" t="s">
         <v>10</v>
@@ -14648,7 +14639,7 @@
         <v>11</v>
       </c>
       <c r="P241" s="368" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q241" s="369"/>
     </row>
@@ -14668,13 +14659,13 @@
       <c r="I242" s="231"/>
       <c r="J242" s="377"/>
       <c r="K242" s="370" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="L242" s="370" t="s">
         <v>215</v>
       </c>
       <c r="M242" s="370" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="N242" s="370" t="s">
         <v>10</v>
@@ -14683,7 +14674,7 @@
         <v>11</v>
       </c>
       <c r="P242" s="371" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q242" s="372"/>
     </row>
@@ -14699,13 +14690,13 @@
       <c r="I243" s="231"/>
       <c r="J243" s="366"/>
       <c r="K243" s="370" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L243" s="370" t="s">
         <v>182</v>
       </c>
       <c r="M243" s="370" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="N243" s="370" t="s">
         <v>14</v>
@@ -14714,7 +14705,7 @@
         <v>11</v>
       </c>
       <c r="P243" s="371" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q243" s="372"/>
     </row>
@@ -14732,13 +14723,13 @@
       <c r="I244" s="231"/>
       <c r="J244" s="366"/>
       <c r="K244" s="370" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="L244" s="370" t="s">
         <v>145</v>
       </c>
       <c r="M244" s="370" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="N244" s="370" t="s">
         <v>10</v>
@@ -14747,7 +14738,7 @@
         <v>11</v>
       </c>
       <c r="P244" s="371" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q244" s="372"/>
     </row>
@@ -14777,13 +14768,13 @@
       <c r="I245" s="231"/>
       <c r="J245" s="373"/>
       <c r="K245" s="205" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="L245" s="205" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M245" s="205" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N245" s="205" t="s">
         <v>10</v>
@@ -14792,7 +14783,7 @@
         <v>11</v>
       </c>
       <c r="P245" s="371" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q245" s="143"/>
     </row>
@@ -14820,13 +14811,13 @@
       <c r="I246" s="231"/>
       <c r="J246" s="373"/>
       <c r="K246" s="205" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L246" s="205" t="s">
         <v>203</v>
       </c>
       <c r="M246" s="205" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="N246" s="205" t="s">
         <v>10</v>
@@ -14835,7 +14826,7 @@
         <v>11</v>
       </c>
       <c r="P246" s="371" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q246" s="143"/>
     </row>
@@ -14863,13 +14854,13 @@
       <c r="I247" s="231"/>
       <c r="J247" s="374"/>
       <c r="K247" s="375" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="L247" s="375" t="s">
         <v>211</v>
       </c>
       <c r="M247" s="375" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="N247" s="375" t="s">
         <v>14</v>
@@ -14878,7 +14869,7 @@
         <v>23</v>
       </c>
       <c r="P247" s="376" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q247" s="206"/>
     </row>
@@ -14936,16 +14927,16 @@
       <c r="H249" s="25"/>
       <c r="I249" s="228"/>
       <c r="J249" s="256" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K249" s="8" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="L249" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M249" s="8" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="N249" s="8" t="s">
         <v>10</v>
@@ -14954,7 +14945,7 @@
         <v>11</v>
       </c>
       <c r="P249" s="34" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q249" s="9"/>
     </row>
@@ -14983,16 +14974,16 @@
       <c r="H250" s="25"/>
       <c r="I250" s="231"/>
       <c r="J250" s="12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="K250" s="11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L250" s="11" t="s">
         <v>38</v>
       </c>
       <c r="M250" s="11" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="N250" s="11" t="s">
         <v>14</v>
@@ -15001,7 +14992,7 @@
         <v>11</v>
       </c>
       <c r="P250" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q250" s="13"/>
     </row>
@@ -15031,13 +15022,13 @@
       <c r="I251" s="231"/>
       <c r="J251" s="12"/>
       <c r="K251" s="11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="L251" s="11" t="s">
         <v>42</v>
       </c>
       <c r="M251" s="11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="N251" s="11" t="s">
         <v>10</v>
@@ -15046,7 +15037,7 @@
         <v>11</v>
       </c>
       <c r="P251" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q251" s="13"/>
     </row>
@@ -15062,13 +15053,13 @@
       <c r="I252" s="231"/>
       <c r="J252" s="12"/>
       <c r="K252" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="L252" s="11" t="s">
         <v>40</v>
       </c>
       <c r="M252" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="N252" s="11" t="s">
         <v>10</v>
@@ -15077,13 +15068,13 @@
         <v>23</v>
       </c>
       <c r="P252" s="33" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q252" s="13"/>
     </row>
     <row r="253" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="352" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B253" s="353" t="s">
         <v>231</v>
@@ -15109,13 +15100,13 @@
       <c r="I253" s="231"/>
       <c r="J253" s="21"/>
       <c r="K253" s="31" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="L253" s="31" t="s">
         <v>51</v>
       </c>
       <c r="M253" s="31" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N253" s="31" t="s">
         <v>10</v>
@@ -15124,7 +15115,7 @@
         <v>23</v>
       </c>
       <c r="P253" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q253" s="16"/>
     </row>
@@ -15224,7 +15215,7 @@
       <c r="H257" s="392"/>
       <c r="I257" s="393"/>
       <c r="J257" s="77" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K257" s="78"/>
       <c r="L257" s="203"/>
@@ -15913,7 +15904,7 @@
       <c r="H274" s="13"/>
       <c r="I274" s="269"/>
       <c r="J274" s="86" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K274" s="38" t="s">
         <v>78</v>
@@ -15952,7 +15943,7 @@
       <c r="H275" s="13"/>
       <c r="I275" s="269"/>
       <c r="J275" s="63" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K275" s="26" t="s">
         <v>337</v>
@@ -16303,7 +16294,7 @@
       <c r="H284" s="25"/>
       <c r="I284" s="269"/>
       <c r="J284" s="86" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="K284" s="38"/>
       <c r="L284" s="38"/>
@@ -16400,7 +16391,7 @@
       <c r="H287" s="25"/>
       <c r="I287" s="269"/>
       <c r="J287" s="83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K287" s="133"/>
       <c r="L287" s="76"/>
@@ -16998,7 +16989,7 @@
         <v>92</v>
       </c>
       <c r="L302" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M302" s="23" t="s">
         <v>92</v>
@@ -17013,7 +17004,7 @@
         <v>329</v>
       </c>
       <c r="Q302" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="303" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17156,7 +17147,7 @@
         <v>82</v>
       </c>
       <c r="C307" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D307" s="23" t="s">
         <v>82</v>
@@ -17198,13 +17189,13 @@
     <row r="308" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="208"/>
       <c r="B308" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C308" s="23" t="s">
         <v>163</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E308" s="23" t="s">
         <v>14</v>
@@ -17240,7 +17231,7 @@
     </row>
     <row r="309" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="208" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B309" s="23" t="s">
         <v>55</v>
@@ -17285,7 +17276,7 @@
     </row>
     <row r="310" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="63" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B310" s="26" t="s">
         <v>333</v>
@@ -17349,7 +17340,7 @@
     </row>
     <row r="312" spans="1:17" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="82" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B312" s="388"/>
       <c r="C312" s="389"/>
@@ -17401,7 +17392,7 @@
     </row>
     <row r="314" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B314" s="23" t="s">
         <v>342</v>
@@ -17440,7 +17431,7 @@
     </row>
     <row r="315" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="270" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B315" s="121" t="s">
         <v>343</v>
@@ -17482,7 +17473,7 @@
       <c r="H316" s="212"/>
       <c r="I316" s="164"/>
       <c r="J316" s="386" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K316" s="387"/>
       <c r="L316" s="6"/>
@@ -17521,11 +17512,11 @@
         <v>11</v>
       </c>
       <c r="P317" s="61" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="Q317" s="9"/>
     </row>
-    <row r="318" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="319" t="s">
         <v>373</v>
       </c>
@@ -17544,8 +17535,8 @@
       <c r="F318" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G318" s="61" t="s">
-        <v>386</v>
+      <c r="G318" s="74" t="s">
+        <v>436</v>
       </c>
       <c r="H318" s="17"/>
       <c r="I318" s="164"/>
@@ -17565,8 +17556,8 @@
       <c r="O318" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P318" s="62" t="s">
-        <v>386</v>
+      <c r="P318" s="74" t="s">
+        <v>436</v>
       </c>
       <c r="Q318" s="170"/>
     </row>
@@ -17587,14 +17578,14 @@
       <c r="F319" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G319" s="62" t="s">
-        <v>386</v>
+      <c r="G319" s="74" t="s">
+        <v>436</v>
       </c>
       <c r="H319" s="47"/>
       <c r="I319" s="164"/>
       <c r="J319" s="289"/>
       <c r="K319" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L319" s="26" t="s">
         <v>26</v>
@@ -17609,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="P319" s="40" t="s">
-        <v>638</v>
+        <v>479</v>
       </c>
       <c r="Q319" s="152"/>
     </row>
@@ -17623,7 +17614,7 @@
         <v>26</v>
       </c>
       <c r="G320" s="40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H320" s="44"/>
       <c r="I320" s="151"/>
@@ -17964,6 +17955,7 @@
       <c r="H410"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA410" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/data/RawData/ObsData/2009-2022/2022/18-10-2022.xlsx
+++ b/data/RawData/ObsData/2009-2022/2022/18-10-2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\GoldenLionTamarinsBrazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7833D0-D051-40D8-9F59-E8EF38161B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B000E5B0-B311-47B5-865D-343D8FEEDF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="776">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2354,10 +2354,10 @@
     <t>MP477</t>
   </si>
   <si>
-    <t>IG2.2</t>
-  </si>
-  <si>
     <t>PT3</t>
+  </si>
+  <si>
+    <t>IG2</t>
   </si>
 </sst>
 </file>
@@ -5112,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6504,7 +6504,7 @@
       <c r="I34" s="100"/>
       <c r="J34" s="12"/>
       <c r="K34" s="11" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>0</v>
@@ -6548,7 +6548,9 @@
       </c>
       <c r="I35" s="100"/>
       <c r="J35" s="21"/>
-      <c r="K35" s="297"/>
+      <c r="K35" s="297" t="s">
+        <v>64</v>
+      </c>
       <c r="L35" s="297"/>
       <c r="M35" s="297"/>
       <c r="N35" s="297"/>
@@ -6924,7 +6926,9 @@
       <c r="H45" s="8"/>
       <c r="I45" s="100"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -6949,7 +6953,9 @@
       <c r="H46" s="183"/>
       <c r="I46" s="112"/>
       <c r="J46" s="310"/>
-      <c r="K46" s="19"/>
+      <c r="K46" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -7754,7 +7760,7 @@
     </row>
     <row r="68" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="258" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B68" s="42" t="s">
         <v>374</v>
@@ -13721,7 +13727,7 @@
     </row>
     <row r="217" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="256" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>713</v>
@@ -17955,7 +17961,6 @@
       <c r="H410"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA410" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
